--- a/config_3.30/item_config.xlsx
+++ b/config_3.30/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_3.30\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.30\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="1056">
   <si>
     <t>id|行号</t>
   </si>
@@ -3709,320 +3709,336 @@
     <t>xnsmt_img_cjq</t>
   </si>
   <si>
+    <t>prop_fish_drop_act_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_7_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小汤圆</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_ty_ssbox</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_ty_xybox</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用礼包专用--传说</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用礼包专用--史诗</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用礼包专用--稀有</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>5元优惠券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值商城中可使用</t>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_10_coupon</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_czyhq2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10元优惠券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_20_coupon</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_czyhq3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>20元优惠券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_50_coupon</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_czyhq4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>50元优惠券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_100_coupon</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_czyhq5</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>100元优惠券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_200_coupon</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_czyhq6</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>200元优惠券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值商城中购买50元档次金币时使用，可抵扣5元</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值商城中购买98元档次金币时使用，可抵扣10元</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值商城中购买198元档次金币时使用，可抵扣20元</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值商城中购买498元档次金币时使用，可抵扣50元</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值商城中购买998元档次金币时使用，可抵扣100元</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值商城中购买2498元档次金币时使用，可抵扣200元</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>eznhk_icon_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_lb1_icon_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_ty_lb1","prop_ty_csbox"</t>
+  </si>
+  <si>
+    <t>"act_ty_lb1","prop_ty_ssbox"</t>
+  </si>
+  <si>
+    <t>prop_xrxsfl_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人限时福利抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>可在新人限时福利中进行转盘抽奖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_5_coupon</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>500话费碎片+狂暴卡*5+双倍奖励卡*5</t>
+  </si>
+  <si>
+    <t>250000福利券赛门票一张+18888金币</t>
+  </si>
+  <si>
+    <t>500话费碎片+苹果大战太阳道具*10</t>
+  </si>
+  <si>
+    <t>1500话费碎片+苹果大战铲子道具*3</t>
+  </si>
+  <si>
+    <t>prop_ty_csbox</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_wild</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_doubled</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_pms_4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_1000flq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_ty_lb1","prop_ty_xybox"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xrxsfl_icon_15ylb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>15元礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xrxsfl_icon_50ylb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>50元礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xrxsfl_icon_10ylb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10元礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xrxsfl_icon_30ylb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>30元礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_jbzk</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币周卡</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续7天，每天登陆免费领金币</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_xrxsfl_15box</t>
+  </si>
+  <si>
+    <t>obj_xrxsfl_50box</t>
+  </si>
+  <si>
+    <t>obj_xrxsfl_10box</t>
+  </si>
+  <si>
+    <t>obj_xrxsfl_30box</t>
+  </si>
+  <si>
+    <t>com_award_icon_czyhq1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>5～50元红包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启后获得优惠券，再商城单笔充值≥50元档次可用</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xrxsfl_icon_hb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xrxsfl_jbzk_icon_jbzk</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_7</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_xrxsfl","obj_xrxsfl_15box"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_xrxsfl","obj_xrxsfl_50box"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_xrxsfl","obj_xrxsfl_10box"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_xrxsfl","obj_xrxsfl_30box"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_xrxsfl_5_50box</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_xrxsfl","obj_xrxsfl_5_50box"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>河灯</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_tiny_game_coin</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_jinglongbi</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>act_ty_by_drop_7_1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>prop_fish_drop_act_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_drop_act_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_7_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>小汤圆</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_ty_ssbox</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_ty_xybox</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用礼包专用--传说</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用礼包专用--史诗</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用礼包专用--稀有</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>5元优惠券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值商城中可使用</t>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_10_coupon</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_czyhq2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>10元优惠券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_20_coupon</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_czyhq3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>20元优惠券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_50_coupon</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_czyhq4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>50元优惠券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_100_coupon</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_czyhq5</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>100元优惠券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_200_coupon</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_czyhq6</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>200元优惠券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值商城中购买50元档次金币时使用，可抵扣5元</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值商城中购买98元档次金币时使用，可抵扣10元</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值商城中购买198元档次金币时使用，可抵扣20元</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值商城中购买498元档次金币时使用，可抵扣50元</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值商城中购买998元档次金币时使用，可抵扣100元</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值商城中购买2498元档次金币时使用，可抵扣200元</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>eznhk_icon_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_lb1_icon_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_ty_lb1","prop_ty_csbox"</t>
-  </si>
-  <si>
-    <t>"act_ty_lb1","prop_ty_ssbox"</t>
-  </si>
-  <si>
-    <t>prop_xrxsfl_cjq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人限时福利抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>可在新人限时福利中进行转盘抽奖</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_5_coupon</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>500话费碎片+狂暴卡*5+双倍奖励卡*5</t>
-  </si>
-  <si>
-    <t>250000福利券赛门票一张+18888金币</t>
-  </si>
-  <si>
-    <t>500话费碎片+苹果大战太阳道具*10</t>
-  </si>
-  <si>
-    <t>1500话费碎片+苹果大战铲子道具*3</t>
-  </si>
-  <si>
-    <t>prop_ty_csbox</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_wild</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_doubled</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_pms_4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_1000flq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_ty_lb1","prop_ty_xybox"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>xrxsfl_icon_15ylb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>15元礼包</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>xrxsfl_icon_50ylb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>50元礼包</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>xrxsfl_icon_10ylb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>10元礼包</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>xrxsfl_icon_30ylb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>30元礼包</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_jbzk</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币周卡</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>连续7天，每天登陆免费领金币</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_xrxsfl_15box</t>
-  </si>
-  <si>
-    <t>obj_xrxsfl_50box</t>
-  </si>
-  <si>
-    <t>obj_xrxsfl_10box</t>
-  </si>
-  <si>
-    <t>obj_xrxsfl_30box</t>
-  </si>
-  <si>
-    <t>com_award_icon_czyhq1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>5～50元红包</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启后获得优惠券，再商城单笔充值≥50元档次可用</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>xrxsfl_icon_hb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>xrxsfl_jbzk_icon_jbzk</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_7</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_xrxsfl","obj_xrxsfl_15box"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_xrxsfl","obj_xrxsfl_50box"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_xrxsfl","obj_xrxsfl_10box"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_xrxsfl","obj_xrxsfl_30box"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_xrxsfl_5_50box</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_xrxsfl","obj_xrxsfl_5_50box"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>河灯</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_tiny_game_coin</t>
+    <t>act_ty_by_drop_7_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龙币</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>在龙王贡品活动中，进行购买贡品</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4605,11 +4621,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q320"/>
+  <dimension ref="A1:Q321"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I135" sqref="I135"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S321" sqref="S321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8214,7 +8230,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D110" s="2">
         <v>-1</v>
@@ -8774,7 +8790,7 @@
         <v>125</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D126" s="2">
         <v>-1</v>
@@ -8783,7 +8799,7 @@
         <v>1</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="G126" s="2">
         <v>1</v>
@@ -8958,7 +8974,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="34" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="G131" s="33">
         <v>0</v>
@@ -8967,7 +8983,7 @@
         <v>1</v>
       </c>
       <c r="I131" s="34" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="J131" s="34" t="s">
         <v>931</v>
@@ -10550,7 +10566,7 @@
         <v>178</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D179" s="2">
         <v>-1</v>
@@ -10587,7 +10603,7 @@
         <v>179</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D180" s="2">
         <v>-1</v>
@@ -10665,7 +10681,7 @@
         <v>1</v>
       </c>
       <c r="F182" s="23" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="G182" s="23">
         <v>1</v>
@@ -14494,7 +14510,7 @@
         <v>291</v>
       </c>
       <c r="C292" s="12" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D292" s="11">
         <v>-1</v>
@@ -14515,10 +14531,10 @@
         <v>926</v>
       </c>
       <c r="J292" s="12" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="L292" s="38" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="293" spans="1:12" s="11" customFormat="1" ht="16.5">
@@ -14529,7 +14545,7 @@
         <v>292</v>
       </c>
       <c r="C293" s="12" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D293" s="11">
         <v>-1</v>
@@ -14550,10 +14566,10 @@
         <v>927</v>
       </c>
       <c r="J293" s="12" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="L293" s="38" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="294" spans="1:12" s="11" customFormat="1" ht="16.5">
@@ -14564,7 +14580,7 @@
         <v>293</v>
       </c>
       <c r="C294" s="12" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D294" s="11">
         <v>-1</v>
@@ -14573,7 +14589,7 @@
         <v>1</v>
       </c>
       <c r="F294" s="12" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="G294" s="11">
         <v>1</v>
@@ -14585,10 +14601,10 @@
         <v>928</v>
       </c>
       <c r="J294" s="12" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="L294" s="38" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="295" spans="1:12" s="11" customFormat="1">
@@ -14951,7 +14967,7 @@
         <v>305</v>
       </c>
       <c r="C306" s="19" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D306" s="11">
         <v>-1</v>
@@ -14960,7 +14976,7 @@
         <v>1</v>
       </c>
       <c r="F306" s="12" t="s">
-        <v>970</v>
+        <v>1052</v>
       </c>
       <c r="G306" s="11">
         <v>0</v>
@@ -14983,16 +14999,16 @@
         <v>306</v>
       </c>
       <c r="C307" s="19" t="s">
+        <v>971</v>
+      </c>
+      <c r="D307" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E307" s="11">
+        <v>1</v>
+      </c>
+      <c r="F307" s="12" t="s">
         <v>972</v>
-      </c>
-      <c r="D307" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E307" s="11">
-        <v>1</v>
-      </c>
-      <c r="F307" s="12" t="s">
-        <v>973</v>
       </c>
       <c r="G307" s="11">
         <v>0</v>
@@ -15001,7 +15017,7 @@
         <v>1</v>
       </c>
       <c r="I307" s="12" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="J307" s="12" t="s">
         <v>931</v>
@@ -15015,7 +15031,7 @@
         <v>307</v>
       </c>
       <c r="C308" s="12" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D308" s="11">
         <v>-1</v>
@@ -15024,7 +15040,7 @@
         <v>1</v>
       </c>
       <c r="F308" s="19" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="G308" s="11">
         <v>1</v>
@@ -15033,16 +15049,16 @@
         <v>1</v>
       </c>
       <c r="I308" s="12" t="s">
+        <v>979</v>
+      </c>
+      <c r="J308" s="37" t="s">
+        <v>998</v>
+      </c>
+      <c r="K308" s="35" t="s">
         <v>980</v>
       </c>
-      <c r="J308" s="37" t="s">
-        <v>999</v>
-      </c>
-      <c r="K308" s="35" t="s">
+      <c r="L308" s="36" t="s">
         <v>981</v>
-      </c>
-      <c r="L308" s="36" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="309" spans="1:12" s="35" customFormat="1" ht="16.5">
@@ -15053,34 +15069,34 @@
         <v>308</v>
       </c>
       <c r="C309" s="12" t="s">
+        <v>982</v>
+      </c>
+      <c r="D309" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E309" s="11">
+        <v>1</v>
+      </c>
+      <c r="F309" s="19" t="s">
         <v>983</v>
       </c>
-      <c r="D309" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E309" s="11">
-        <v>1</v>
-      </c>
-      <c r="F309" s="19" t="s">
+      <c r="G309" s="11">
+        <v>1</v>
+      </c>
+      <c r="H309" s="11">
+        <v>1</v>
+      </c>
+      <c r="I309" s="12" t="s">
         <v>984</v>
       </c>
-      <c r="G309" s="11">
-        <v>1</v>
-      </c>
-      <c r="H309" s="11">
-        <v>1</v>
-      </c>
-      <c r="I309" s="12" t="s">
+      <c r="J309" s="37" t="s">
+        <v>999</v>
+      </c>
+      <c r="K309" s="35" t="s">
+        <v>980</v>
+      </c>
+      <c r="L309" s="36" t="s">
         <v>985</v>
-      </c>
-      <c r="J309" s="37" t="s">
-        <v>1000</v>
-      </c>
-      <c r="K309" s="35" t="s">
-        <v>981</v>
-      </c>
-      <c r="L309" s="36" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="310" spans="1:12" s="35" customFormat="1" ht="16.5">
@@ -15091,34 +15107,34 @@
         <v>309</v>
       </c>
       <c r="C310" s="12" t="s">
+        <v>986</v>
+      </c>
+      <c r="D310" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E310" s="11">
+        <v>1</v>
+      </c>
+      <c r="F310" s="19" t="s">
         <v>987</v>
       </c>
-      <c r="D310" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E310" s="11">
-        <v>1</v>
-      </c>
-      <c r="F310" s="19" t="s">
+      <c r="G310" s="11">
+        <v>1</v>
+      </c>
+      <c r="H310" s="11">
+        <v>1</v>
+      </c>
+      <c r="I310" s="12" t="s">
         <v>988</v>
       </c>
-      <c r="G310" s="11">
-        <v>1</v>
-      </c>
-      <c r="H310" s="11">
-        <v>1</v>
-      </c>
-      <c r="I310" s="12" t="s">
-        <v>989</v>
-      </c>
       <c r="J310" s="37" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="K310" s="35" t="s">
+        <v>980</v>
+      </c>
+      <c r="L310" s="36" t="s">
         <v>981</v>
-      </c>
-      <c r="L310" s="36" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="311" spans="1:12" s="35" customFormat="1" ht="16.5">
@@ -15129,34 +15145,34 @@
         <v>310</v>
       </c>
       <c r="C311" s="12" t="s">
+        <v>989</v>
+      </c>
+      <c r="D311" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E311" s="11">
+        <v>1</v>
+      </c>
+      <c r="F311" s="19" t="s">
         <v>990</v>
       </c>
-      <c r="D311" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E311" s="11">
-        <v>1</v>
-      </c>
-      <c r="F311" s="19" t="s">
+      <c r="G311" s="11">
+        <v>1</v>
+      </c>
+      <c r="H311" s="11">
+        <v>1</v>
+      </c>
+      <c r="I311" s="12" t="s">
         <v>991</v>
       </c>
-      <c r="G311" s="11">
-        <v>1</v>
-      </c>
-      <c r="H311" s="11">
-        <v>1</v>
-      </c>
-      <c r="I311" s="12" t="s">
-        <v>992</v>
-      </c>
       <c r="J311" s="37" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="K311" s="35" t="s">
+        <v>980</v>
+      </c>
+      <c r="L311" s="36" t="s">
         <v>981</v>
-      </c>
-      <c r="L311" s="36" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="312" spans="1:12" s="35" customFormat="1" ht="16.5">
@@ -15167,34 +15183,34 @@
         <v>311</v>
       </c>
       <c r="C312" s="12" t="s">
+        <v>992</v>
+      </c>
+      <c r="D312" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E312" s="11">
+        <v>1</v>
+      </c>
+      <c r="F312" s="19" t="s">
         <v>993</v>
       </c>
-      <c r="D312" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E312" s="11">
-        <v>1</v>
-      </c>
-      <c r="F312" s="19" t="s">
+      <c r="G312" s="11">
+        <v>1</v>
+      </c>
+      <c r="H312" s="11">
+        <v>1</v>
+      </c>
+      <c r="I312" s="12" t="s">
         <v>994</v>
       </c>
-      <c r="G312" s="11">
-        <v>1</v>
-      </c>
-      <c r="H312" s="11">
-        <v>1</v>
-      </c>
-      <c r="I312" s="12" t="s">
-        <v>995</v>
-      </c>
       <c r="J312" s="37" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="K312" s="35" t="s">
+        <v>980</v>
+      </c>
+      <c r="L312" s="36" t="s">
         <v>981</v>
-      </c>
-      <c r="L312" s="36" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="313" spans="1:12" s="35" customFormat="1" ht="16.5">
@@ -15205,34 +15221,34 @@
         <v>312</v>
       </c>
       <c r="C313" s="12" t="s">
+        <v>995</v>
+      </c>
+      <c r="D313" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E313" s="11">
+        <v>1</v>
+      </c>
+      <c r="F313" s="19" t="s">
         <v>996</v>
       </c>
-      <c r="D313" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E313" s="11">
-        <v>1</v>
-      </c>
-      <c r="F313" s="19" t="s">
+      <c r="G313" s="11">
+        <v>1</v>
+      </c>
+      <c r="H313" s="11">
+        <v>1</v>
+      </c>
+      <c r="I313" s="12" t="s">
         <v>997</v>
       </c>
-      <c r="G313" s="11">
-        <v>1</v>
-      </c>
-      <c r="H313" s="11">
-        <v>1</v>
-      </c>
-      <c r="I313" s="12" t="s">
-        <v>998</v>
-      </c>
       <c r="J313" s="37" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="K313" s="35" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="L313" s="36" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="314" spans="1:12" s="11" customFormat="1" ht="16.5">
@@ -15243,7 +15259,7 @@
         <v>313</v>
       </c>
       <c r="C314" s="19" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D314" s="11">
         <v>-1</v>
@@ -15261,10 +15277,10 @@
         <v>1</v>
       </c>
       <c r="I314" s="12" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J314" s="12" t="s">
         <v>1010</v>
-      </c>
-      <c r="J314" s="12" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="315" spans="1:12" ht="16.5">
@@ -15275,7 +15291,7 @@
         <v>314</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D315" s="11">
         <v>-1</v>
@@ -15284,22 +15300,22 @@
         <v>1</v>
       </c>
       <c r="F315" s="19" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G315" s="2">
+        <v>1</v>
+      </c>
+      <c r="H315" s="11">
+        <v>1</v>
+      </c>
+      <c r="I315" s="5" t="s">
         <v>1023</v>
       </c>
-      <c r="G315" s="2">
-        <v>1</v>
-      </c>
-      <c r="H315" s="11">
-        <v>1</v>
-      </c>
-      <c r="I315" s="5" t="s">
-        <v>1024</v>
-      </c>
       <c r="J315" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="L315" s="5" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="316" spans="1:12" ht="16.5">
@@ -15310,7 +15326,7 @@
         <v>315</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D316" s="11">
         <v>-1</v>
@@ -15319,22 +15335,22 @@
         <v>1</v>
       </c>
       <c r="F316" s="19" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G316" s="2">
+        <v>1</v>
+      </c>
+      <c r="H316" s="11">
+        <v>1</v>
+      </c>
+      <c r="I316" s="5" t="s">
         <v>1025</v>
       </c>
-      <c r="G316" s="2">
-        <v>1</v>
-      </c>
-      <c r="H316" s="11">
-        <v>1</v>
-      </c>
-      <c r="I316" s="5" t="s">
-        <v>1026</v>
-      </c>
       <c r="J316" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="L316" s="5" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="317" spans="1:12" ht="16.5">
@@ -15345,7 +15361,7 @@
         <v>316</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D317" s="11">
         <v>-1</v>
@@ -15354,22 +15370,22 @@
         <v>1</v>
       </c>
       <c r="F317" s="19" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G317" s="2">
+        <v>1</v>
+      </c>
+      <c r="H317" s="11">
+        <v>1</v>
+      </c>
+      <c r="I317" s="5" t="s">
         <v>1027</v>
       </c>
-      <c r="G317" s="2">
-        <v>1</v>
-      </c>
-      <c r="H317" s="11">
-        <v>1</v>
-      </c>
-      <c r="I317" s="5" t="s">
-        <v>1028</v>
-      </c>
       <c r="J317" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="L317" s="5" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="318" spans="1:12" ht="16.5">
@@ -15380,7 +15396,7 @@
         <v>317</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D318" s="11">
         <v>-1</v>
@@ -15389,22 +15405,22 @@
         <v>1</v>
       </c>
       <c r="F318" s="19" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G318" s="2">
+        <v>1</v>
+      </c>
+      <c r="H318" s="11">
+        <v>1</v>
+      </c>
+      <c r="I318" s="5" t="s">
         <v>1029</v>
       </c>
-      <c r="G318" s="2">
-        <v>1</v>
-      </c>
-      <c r="H318" s="11">
-        <v>1</v>
-      </c>
-      <c r="I318" s="5" t="s">
-        <v>1030</v>
-      </c>
       <c r="J318" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="L318" s="5" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -15415,7 +15431,7 @@
         <v>318</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D319" s="2">
         <v>-1</v>
@@ -15424,7 +15440,7 @@
         <v>1</v>
       </c>
       <c r="F319" s="5" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="G319" s="2">
         <v>0</v>
@@ -15433,10 +15449,10 @@
         <v>1</v>
       </c>
       <c r="I319" s="5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="J319" s="5" t="s">
         <v>1032</v>
-      </c>
-      <c r="J319" s="5" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -15447,31 +15463,63 @@
         <v>319</v>
       </c>
       <c r="C320" s="5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D320" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E320" s="2">
+        <v>1</v>
+      </c>
+      <c r="F320" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G320" s="2">
+        <v>1</v>
+      </c>
+      <c r="H320" s="2">
+        <v>1</v>
+      </c>
+      <c r="I320" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="J320" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="L320" s="5" t="s">
         <v>1048</v>
       </c>
-      <c r="D320" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E320" s="2">
-        <v>1</v>
-      </c>
-      <c r="F320" s="5" t="s">
-        <v>1041</v>
-      </c>
-      <c r="G320" s="2">
-        <v>1</v>
-      </c>
-      <c r="H320" s="2">
-        <v>1</v>
-      </c>
-      <c r="I320" s="5" t="s">
-        <v>1039</v>
-      </c>
-      <c r="J320" s="5" t="s">
-        <v>1040</v>
-      </c>
-      <c r="L320" s="5" t="s">
-        <v>1049</v>
+    </row>
+    <row r="321" spans="1:10">
+      <c r="A321" s="2">
+        <v>320</v>
+      </c>
+      <c r="B321" s="2">
+        <v>320</v>
+      </c>
+      <c r="C321" s="5" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D321" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E321" s="2">
+        <v>1</v>
+      </c>
+      <c r="F321" s="5" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G321" s="2">
+        <v>0</v>
+      </c>
+      <c r="H321" s="2">
+        <v>1</v>
+      </c>
+      <c r="I321" s="5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="J321" s="5" t="s">
+        <v>1055</v>
       </c>
     </row>
   </sheetData>
